--- a/products.xlsx
+++ b/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t xml:space="preserve">Product No</t>
   </si>
@@ -43,69 +43,10 @@
     <t xml:space="preserve">BBB Company</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">234 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF383838"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">99</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">CCC Company</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AAA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Company</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB ComJJany</t>
   </si>
 </sst>
 </file>
@@ -117,7 +58,7 @@
     <numFmt numFmtId="165" formatCode="###0;###0"/>
     <numFmt numFmtId="166" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,22 +90,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF383838"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -599,7 +526,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,175 +535,175 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,27 +711,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -874,7 +797,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF383838"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -888,10 +811,10 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.29296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.25"/>
@@ -912,355 +835,355 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>234</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>289</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>523</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <v>599</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>43</v>
-      </c>
-      <c r="C5" s="16" t="n">
-        <v>2189</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="B7" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C7" s="19" t="n">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>352</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>155</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>2352</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>111</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="n">
+        <v>666</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>599</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="n">
-        <v>523</v>
-      </c>
-      <c r="C6" s="18" t="n">
-        <v>5599</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26" t="n">
+        <v>235</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>695</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>399</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="n">
+        <v>85</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <v>255</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="n">
+        <v>458</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>245</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <v>599</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>535</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>598</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="n">
+        <v>352</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>999</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="n">
+        <v>688</v>
+      </c>
+      <c r="C18" s="36" t="n">
+        <v>999</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C19" s="39" t="n">
+        <v>249</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40" t="n">
         <v>54</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C20" s="41" t="n">
+        <v>495</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>457</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>490</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="n">
-        <v>352</v>
-      </c>
-      <c r="C8" s="22" t="n">
-        <v>12255</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>2352</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>111</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23" t="n">
-        <v>666</v>
-      </c>
-      <c r="C10" s="24" t="n">
-        <v>34599</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="n">
+        <v>346</v>
+      </c>
+      <c r="C22" s="45" t="n">
+        <v>150</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="n">
-        <v>235</v>
-      </c>
-      <c r="C11" s="28" t="n">
-        <v>64695</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="n">
-        <v>77</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>1399</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="n">
+        <v>745</v>
+      </c>
+      <c r="C23" s="47" t="n">
+        <v>499</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32" t="n">
-        <v>85</v>
-      </c>
-      <c r="C13" s="22" t="n">
-        <v>235255</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="48" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" s="49" t="n">
+        <v>189</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="n">
-        <v>458</v>
-      </c>
-      <c r="C14" s="16" t="n">
-        <v>3245</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>234</v>
-      </c>
-      <c r="C15" s="18" t="n">
-        <v>23599</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>535</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>23598</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33" t="n">
-        <v>352</v>
-      </c>
-      <c r="C17" s="34" t="n">
-        <v>999</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36" t="n">
-        <v>688</v>
-      </c>
-      <c r="C18" s="37" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="39" t="n">
-        <v>378</v>
-      </c>
-      <c r="C19" s="40" t="n">
-        <v>249</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="41" t="n">
-        <v>54</v>
-      </c>
-      <c r="C20" s="42" t="n">
-        <v>495</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="44" t="n">
-        <v>457</v>
-      </c>
-      <c r="C21" s="22" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="45" t="n">
-        <v>346</v>
-      </c>
-      <c r="C22" s="46" t="n">
-        <v>33</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="47" t="n">
-        <v>745</v>
-      </c>
-      <c r="C23" s="48" t="n">
-        <v>23499</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="49" t="n">
-        <v>45</v>
-      </c>
-      <c r="C24" s="50" t="n">
-        <v>2189</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="30.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Supplier</t>
+    <t xml:space="preserve">Company</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="20">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -143,13 +143,61 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FFACACAC"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FFA8A8A8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA8A8A8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFACACAC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFACACAC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFACACAC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFACACAC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFACACAC"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -158,26 +206,102 @@
       <right style="thin">
         <color rgb="FFACACAC"/>
       </right>
+      <top style="thin">
+        <color rgb="FFACACAC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFAFAF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAFAFAF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAFAFAF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFACACAC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
       <top/>
       <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFACACAC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFACACAC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFACACAC"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FFA8A8A8"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FFACACAC"/>
@@ -185,268 +309,10 @@
       <top style="thin">
         <color rgb="FFA8A8A8"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAFAFAF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAFAFAF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAFAFAF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAFAFAF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAFAFAF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB3B3B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB3B3B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB3B3B3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB3B3B3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFACACAC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA8A8A8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA8A8A8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FFACACAC"/>
@@ -474,21 +340,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color rgb="FFACACAC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFACACAC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFACA8AC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFACACAC"/>
-      </left>
       <right style="thin">
         <color rgb="FFACACAC"/>
       </right>
@@ -526,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,22 +402,22 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,31 +426,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,23 +442,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,15 +462,55 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,7 +518,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,79 +530,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,19 +611,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.29296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.16"/>
   </cols>
@@ -835,10 +638,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -853,7 +655,6 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
@@ -862,58 +663,54 @@
       <c r="B3" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="10" t="n">
         <v>234</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
         <v>289</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="13" t="n">
         <v>523</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="14" t="n">
         <v>599</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -922,136 +719,127 @@
       <c r="B7" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="15" t="n">
         <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="n">
+      <c r="B8" s="16" t="n">
         <v>352</v>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C8" s="17" t="n">
         <v>155</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="11" t="n">
         <v>2352</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="11" t="n">
         <v>111</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="18" t="n">
         <v>666</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="19" t="n">
         <v>599</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="n">
+      <c r="B11" s="21" t="n">
         <v>235</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="22" t="n">
         <v>695</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="n">
+      <c r="B12" s="23" t="n">
         <v>77</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>399</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="n">
-        <v>85</v>
-      </c>
-      <c r="C13" s="21" t="n">
+      <c r="B13" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17" t="n">
         <v>255</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="n">
+      <c r="A14" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="11" t="n">
         <v>458</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="12" t="n">
         <v>245</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="14" t="n">
         <v>599</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
+      <c r="A16" s="20" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="n">
@@ -1063,127 +851,118 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="n">
+      <c r="A17" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="n">
+      <c r="B17" s="25" t="n">
         <v>352</v>
       </c>
-      <c r="C17" s="33" t="n">
+      <c r="C17" s="26" t="n">
         <v>999</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="n">
+      <c r="A18" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="n">
-        <v>688</v>
-      </c>
-      <c r="C18" s="36" t="n">
+      <c r="B18" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="28" t="n">
         <v>999</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="37"/>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="n">
+      <c r="A19" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="n">
+      <c r="B19" s="29" t="n">
         <v>378</v>
       </c>
-      <c r="C19" s="39" t="n">
+      <c r="C19" s="30" t="n">
         <v>249</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="n">
+      <c r="A20" s="20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="n">
+      <c r="B20" s="31" t="n">
         <v>54</v>
       </c>
-      <c r="C20" s="41" t="n">
+      <c r="C20" s="32" t="n">
         <v>495</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="42"/>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
+      <c r="A21" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="43" t="n">
-        <v>457</v>
-      </c>
-      <c r="C21" s="21" t="n">
+      <c r="B21" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="17" t="n">
         <v>490</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="n">
+      <c r="A22" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="n">
+      <c r="B22" s="34" t="n">
         <v>346</v>
       </c>
-      <c r="C22" s="45" t="n">
+      <c r="C22" s="34" t="n">
         <v>150</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="18"/>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+      <c r="A23" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="n">
+      <c r="B23" s="35" t="n">
         <v>745</v>
       </c>
-      <c r="C23" s="47" t="n">
+      <c r="C23" s="36" t="n">
         <v>499</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="10"/>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
+      <c r="A24" s="20" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="48" t="n">
+      <c r="B24" s="37" t="n">
         <v>45</v>
       </c>
-      <c r="C24" s="49" t="n">
+      <c r="C24" s="38" t="n">
         <v>189</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="50"/>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="30.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1210,32 +989,6 @@
     <row r="47" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
